--- a/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
+++ b/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -573,13 +573,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -597,28 +597,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -645,18 +645,18 @@
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -701,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -731,21 +731,21 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -802,22 +802,22 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -826,27 +826,27 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -882,31 +882,31 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -932,28 +932,28 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -974,19 +974,19 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -995,25 +995,25 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1024,34 +1024,34 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1084,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1116,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1149,34 +1149,34 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1226,22 +1226,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1250,16 +1250,16 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1306,22 +1306,22 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1502,37 +1502,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1544,28 +1544,28 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1588,25 +1588,25 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1630,28 +1630,28 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1668,13 +1668,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1683,25 +1683,25 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -1760,22 +1760,22 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1784,22 +1784,22 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1808,19 +1808,19 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1876,16 +1876,16 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -1915,13 +1915,13 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1956,61 +1956,61 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2069,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2090,25 +2090,25 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>1</v>
@@ -2125,13 +2125,13 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2140,13 +2140,13 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2191,25 +2191,25 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -2220,25 +2220,25 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2247,28 +2247,28 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2327,16 +2327,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2354,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2372,19 +2372,19 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2413,19 +2413,19 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2452,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -2476,16 +2476,16 @@
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -2496,55 +2496,55 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2568,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2591,22 +2591,22 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2618,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2630,25 +2630,25 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -2657,19 +2657,19 @@
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2698,16 +2698,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2719,13 +2719,13 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>1</v>
@@ -2758,18 +2758,18 @@
         <v>1</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2787,22 +2787,22 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2814,19 +2814,19 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -2861,37 +2861,37 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2903,25 +2903,25 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -2939,13 +2939,13 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -2953,34 +2953,34 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -3022,25 +3022,25 @@
         <v>1</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -3078,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3140,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3158,13 +3158,13 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3179,34 +3179,34 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -3241,28 +3241,28 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -3274,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>1</v>
@@ -3304,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>1</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3351,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -3363,22 +3363,22 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -3405,21 +3405,21 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -3461,10 +3461,10 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3485,13 +3485,13 @@
         <v>1</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
         <v>1</v>
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3547,16 +3547,16 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3580,19 +3580,19 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
         <v>1</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3648,22 +3648,22 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>1</v>
@@ -3675,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3716,19 +3716,19 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3743,31 +3743,31 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -3853,10 +3853,10 @@
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3888,25 +3888,25 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -3951,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4001,28 +4001,28 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>1</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>1</v>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -4057,13 +4057,13 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4096,22 +4096,22 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -4120,22 +4120,22 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4179,31 +4179,31 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -4212,10 +4212,10 @@
         <v>1</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>1</v>
@@ -4230,13 +4230,13 @@
         <v>1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4247,16 +4247,16 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4277,16 +4277,16 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -4298,13 +4298,13 @@
         <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
         <v>1</v>
@@ -4313,16 +4313,16 @@
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
         <v>1</v>
@@ -4342,10 +4342,10 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4354,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -4366,19 +4366,19 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
         <v>1</v>
@@ -4402,33 +4402,33 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43">
         <v>1</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
       <c r="A44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4440,13 +4440,13 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -4467,25 +4467,25 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>1</v>
@@ -4497,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44">
         <v>1</v>
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="AD44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4556,13 +4556,13 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -4571,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -4589,13 +4589,13 @@
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45">
         <v>1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>1</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4621,13 +4621,13 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4657,25 +4657,25 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <v>1</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4725,13 +4725,13 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -4740,25 +4740,25 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>1</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
         <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -4767,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -4779,13 +4779,13 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -4793,28 +4793,28 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4832,13 +4832,13 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -4856,22 +4856,22 @@
         <v>1</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>1</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4897,22 +4897,22 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4927,25 +4927,25 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
         <v>1</v>
@@ -4957,19 +4957,19 @@
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -4980,19 +4980,19 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -5034,22 +5034,22 @@
         <v>1</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>1</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <v>1</v>
@@ -5058,13 +5058,13 @@
         <v>1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>1</v>
       </c>
       <c r="AD50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5078,16 +5078,16 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -5111,10 +5111,10 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -5126,19 +5126,19 @@
         <v>1</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51">
         <v>1</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -5209,60 +5209,60 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>1</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:30">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -5310,16 +5310,16 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>1</v>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="Z53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -5363,19 +5363,19 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -5390,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -5402,31 +5402,31 @@
         <v>1</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>1</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54">
         <v>1</v>
       </c>
       <c r="X54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>1</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>1</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -5449,10 +5449,10 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5470,16 +5470,16 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -5497,10 +5497,10 @@
         <v>1</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
         <v>1</v>
@@ -5515,16 +5515,16 @@
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
         <v>1</v>
       </c>
       <c r="AD55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5535,13 +5535,13 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5559,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -5586,25 +5586,25 @@
         <v>1</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>1</v>
@@ -5624,13 +5624,13 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5651,19 +5651,19 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -5678,10 +5678,10 @@
         <v>1</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>1</v>
@@ -5693,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <v>1</v>
@@ -5713,13 +5713,13 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5740,10 +5740,10 @@
         <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -5752,10 +5752,10 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58">
         <v>1</v>
@@ -5785,22 +5785,22 @@
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
         <v>1</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5814,19 +5814,19 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -5853,31 +5853,31 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59">
         <v>1</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z59">
         <v>1</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>1</v>
@@ -5900,13 +5900,13 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5942,19 +5942,19 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
         <v>1</v>
@@ -5992,25 +5992,25 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -6028,16 +6028,16 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -6046,13 +6046,13 @@
         <v>1</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61">
         <v>1</v>
       </c>
       <c r="V61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61">
         <v>1</v>
@@ -6067,13 +6067,13 @@
         <v>1</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>1</v>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6096,46 +6096,46 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62">
         <v>1</v>
@@ -6144,16 +6144,16 @@
         <v>1</v>
       </c>
       <c r="V62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62">
         <v>1</v>
       </c>
       <c r="X62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -6162,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD62">
         <v>1</v>
@@ -6191,22 +6191,22 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -6227,16 +6227,16 @@
         <v>1</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -6251,16 +6251,16 @@
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6280,13 +6280,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6295,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -6325,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
         <v>1</v>
@@ -6337,19 +6337,19 @@
         <v>0</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z64">
         <v>1</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
         <v>1</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -6369,10 +6369,10 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6384,22 +6384,22 @@
         <v>1</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -6417,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6429,10 +6429,10 @@
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>1</v>
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6452,67 +6452,67 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
         <v>1</v>
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66">
         <v>1</v>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="AD66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6562,19 +6562,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -6616,16 +6616,16 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67">
         <v>1</v>
@@ -6636,19 +6636,19 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6660,34 +6660,34 @@
         <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>1</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68">
         <v>1</v>
@@ -6702,13 +6702,13 @@
         <v>1</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68">
         <v>1</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -6717,21 +6717,21 @@
         <v>1</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:30">
       <c r="A69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69">
         <v>1</v>
@@ -6794,13 +6794,13 @@
         <v>1</v>
       </c>
       <c r="X69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6832,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -6862,16 +6862,16 @@
         <v>1</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>1</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70">
         <v>1</v>
@@ -6880,19 +6880,19 @@
         <v>1</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70">
         <v>1</v>
       </c>
       <c r="X70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA70">
         <v>1</v>
@@ -6909,13 +6909,13 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6939,28 +6939,28 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -6972,19 +6972,19 @@
         <v>1</v>
       </c>
       <c r="V71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>1</v>
@@ -7001,37 +7001,37 @@
     </row>
     <row r="72" spans="1:30">
       <c r="A72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -7052,25 +7052,25 @@
         <v>1</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72">
         <v>1</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72">
         <v>1</v>
@@ -7079,13 +7079,13 @@
         <v>1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD72">
         <v>1</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="73" spans="1:30">
       <c r="A73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7105,16 +7105,16 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -7126,28 +7126,28 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73">
         <v>1</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73">
         <v>1</v>
@@ -7156,16 +7156,16 @@
         <v>1</v>
       </c>
       <c r="V73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X73">
         <v>1</v>
       </c>
       <c r="Y73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7191,13 +7191,13 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -7206,13 +7206,13 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7221,19 +7221,19 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>1</v>
@@ -7242,45 +7242,45 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74">
         <v>1</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>1</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:30">
       <c r="A75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7289,10 +7289,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7301,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7313,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -7325,13 +7325,13 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>1</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75">
         <v>1</v>
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="X75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7411,13 +7411,13 @@
         <v>1</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -7432,22 +7432,22 @@
         <v>1</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76">
         <v>1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB76">
         <v>1</v>
@@ -7464,16 +7464,16 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -7521,45 +7521,45 @@
         <v>1</v>
       </c>
       <c r="U77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77">
         <v>1</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X77">
         <v>1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <v>1</v>
       </c>
       <c r="AD77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:30">
       <c r="A78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -7571,13 +7571,13 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -7589,19 +7589,19 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78">
         <v>1</v>
@@ -7610,34 +7610,34 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78">
         <v>1</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X78">
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -7669,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -7690,28 +7690,28 @@
         <v>1</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79">
         <v>1</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X79">
         <v>1</v>
@@ -7723,16 +7723,16 @@
         <v>1</v>
       </c>
       <c r="AA79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -7749,37 +7749,37 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80">
         <v>1</v>
@@ -7818,13 +7818,13 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7835,13 +7835,13 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -7865,22 +7865,22 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -7910,27 +7910,27 @@
         <v>1</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC81">
         <v>1</v>
       </c>
       <c r="AD81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:30">
       <c r="A82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -7939,13 +7939,13 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -7954,16 +7954,16 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -7975,28 +7975,28 @@
         <v>1</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82">
         <v>1</v>
       </c>
       <c r="U82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82">
         <v>1</v>
       </c>
       <c r="X82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82">
         <v>1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD82">
         <v>1</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="A83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -8037,22 +8037,22 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>1</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -8061,13 +8061,13 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83">
         <v>1</v>
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X83">
         <v>1</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>1</v>
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD83">
         <v>1</v>
@@ -8120,13 +8120,13 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -8138,28 +8138,28 @@
         <v>1</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84">
         <v>1</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84">
         <v>1</v>
@@ -8177,16 +8177,16 @@
         <v>1</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA84">
         <v>0</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC84">
         <v>1</v>
@@ -8197,16 +8197,16 @@
     </row>
     <row r="85" spans="1:30">
       <c r="A85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -8245,34 +8245,34 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85">
         <v>1</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85">
         <v>1</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85">
         <v>1</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y85">
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA85">
         <v>1</v>
@@ -8281,21 +8281,21 @@
         <v>1</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:30">
       <c r="A86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -8310,31 +8310,31 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86">
         <v>1</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -8346,34 +8346,34 @@
         <v>1</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W86">
         <v>1</v>
       </c>
       <c r="X86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z86">
         <v>1</v>
       </c>
       <c r="AA86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB86">
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -8381,10 +8381,10 @@
     </row>
     <row r="87" spans="1:30">
       <c r="A87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -8393,13 +8393,13 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8423,19 +8423,19 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87">
         <v>1</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87">
         <v>1</v>
@@ -8450,25 +8450,25 @@
         <v>1</v>
       </c>
       <c r="X87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8485,13 +8485,13 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88">
         <v>1</v>
@@ -8536,31 +8536,31 @@
         <v>1</v>
       </c>
       <c r="V88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W88">
         <v>1</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88">
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <v>0</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8568,31 +8568,31 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -8619,22 +8619,22 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89">
         <v>1</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89">
         <v>1</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89">
         <v>1</v>
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -8711,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90">
         <v>1</v>
@@ -8723,7 +8723,7 @@
         <v>1</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X90">
         <v>1</v>
@@ -8741,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD90">
         <v>1</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="91" spans="1:30">
       <c r="A91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8758,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -8782,28 +8782,28 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
         <v>1</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91">
         <v>1</v>
@@ -8818,10 +8818,10 @@
         <v>1</v>
       </c>
       <c r="X91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z91">
         <v>1</v>
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="AC91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -8841,16 +8841,16 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -8862,10 +8862,10 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -8874,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -8883,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -8895,25 +8895,25 @@
         <v>1</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>1</v>
       </c>
       <c r="V92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <v>1</v>
       </c>
       <c r="Y92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z92">
         <v>1</v>
@@ -8922,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>1</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="A93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8945,13 +8945,13 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
         <v>1</v>
@@ -8993,28 +8993,28 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93">
         <v>1</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93">
         <v>0</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA93">
         <v>1</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -9025,22 +9025,22 @@
     </row>
     <row r="94" spans="1:30">
       <c r="A94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -9064,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -9076,16 +9076,16 @@
         <v>1</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94">
         <v>1</v>
       </c>
       <c r="U94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94">
         <v>1</v>
@@ -9100,19 +9100,19 @@
         <v>1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA94">
         <v>1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
         <v>1</v>
       </c>
       <c r="AD94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9120,16 +9120,16 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -9141,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -9153,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -9183,19 +9183,19 @@
         <v>1</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X95">
         <v>0</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB95">
         <v>0</v>
@@ -9212,10 +9212,10 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9224,22 +9224,22 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -9251,19 +9251,19 @@
         <v>1</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96">
         <v>1</v>
@@ -9284,19 +9284,19 @@
         <v>1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>0</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>1</v>
       </c>
       <c r="AD96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9307,7 +9307,7 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9322,19 +9322,19 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="T97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>1</v>
@@ -9370,22 +9370,22 @@
         <v>1</v>
       </c>
       <c r="X97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97">
         <v>1</v>
       </c>
       <c r="AC97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD97">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -9408,13 +9408,13 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -9426,22 +9426,22 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98">
         <v>1</v>
@@ -9456,28 +9456,28 @@
         <v>1</v>
       </c>
       <c r="V98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98">
         <v>1</v>
       </c>
       <c r="X98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y98">
         <v>1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD98">
         <v>1</v>
@@ -9488,10 +9488,10 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9521,31 +9521,31 @@
         <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99">
         <v>1</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99">
         <v>1</v>
       </c>
       <c r="U99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V99">
         <v>1</v>
@@ -9554,13 +9554,13 @@
         <v>1</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y99">
         <v>1</v>
       </c>
       <c r="Z99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA99">
         <v>1</v>
@@ -9572,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9583,10 +9583,10 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -9607,25 +9607,25 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100">
         <v>1</v>
@@ -9637,10 +9637,10 @@
         <v>1</v>
       </c>
       <c r="U100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W100">
         <v>1</v>
@@ -9649,22 +9649,22 @@
         <v>1</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9672,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9693,22 +9693,22 @@
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -9720,22 +9720,22 @@
         <v>1</v>
       </c>
       <c r="R101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X101">
         <v>1</v>
@@ -9744,10 +9744,10 @@
         <v>1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB101">
         <v>1</v>

--- a/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
+++ b/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
@@ -564,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -585,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -597,46 +597,46 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -648,18 +648,18 @@
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -668,31 +668,31 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -704,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -731,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -760,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -796,16 +796,16 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -826,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -843,19 +843,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -897,19 +897,19 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -918,13 +918,13 @@
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -938,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1024,16 +1024,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1042,40 +1042,40 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1084,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1125,19 +1125,19 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -1182,30 +1182,30 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1268,13 +1268,13 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1286,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1324,13 +1324,13 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>1</v>
@@ -1389,16 +1389,16 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1413,28 +1413,28 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1461,22 +1461,22 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1484,31 +1484,31 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1544,16 +1544,16 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1588,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1621,16 +1621,16 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -1683,22 +1683,22 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1716,25 +1716,25 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>1</v>
@@ -1760,40 +1760,40 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1802,13 +1802,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -1835,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -1921,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1950,40 +1950,40 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1995,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2036,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2051,34 +2051,34 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2087,25 +2087,25 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2125,13 +2125,13 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2140,28 +2140,28 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>1</v>
@@ -2212,12 +2212,12 @@
         <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2265,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2327,16 +2327,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2345,13 +2345,13 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -2375,22 +2375,22 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2431,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -2476,16 +2476,16 @@
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -2496,22 +2496,22 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2520,28 +2520,28 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>1</v>
@@ -2577,10 +2577,10 @@
         <v>1</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2594,25 +2594,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2621,19 +2621,19 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -2669,18 +2669,18 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2689,22 +2689,22 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2734,19 +2734,19 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -2769,40 +2769,40 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2811,16 +2811,16 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2861,19 +2861,19 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2900,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2980,16 +2980,16 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -3022,10 +3022,10 @@
         <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3048,13 +3048,13 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3081,22 +3081,22 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -3120,13 +3120,13 @@
         <v>1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3137,22 +3137,22 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3161,13 +3161,13 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -3224,18 +3224,18 @@
         <v>1</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -3295,22 +3295,22 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>1</v>
@@ -3321,13 +3321,13 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3339,19 +3339,19 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3375,25 +3375,25 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -3405,21 +3405,21 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3428,16 +3428,16 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -3446,16 +3446,16 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -3473,22 +3473,22 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>1</v>
@@ -3497,10 +3497,10 @@
         <v>1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3508,13 +3508,13 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -3571,28 +3571,28 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3606,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3618,19 +3618,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -3681,15 +3681,15 @@
         <v>1</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3704,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3716,10 +3716,10 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -3731,25 +3731,25 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>1</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
         <v>1</v>
@@ -3758,19 +3758,19 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>1</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>1</v>
@@ -3784,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3817,31 +3817,31 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
         <v>1</v>
@@ -3853,10 +3853,10 @@
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3903,16 +3903,16 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -3933,51 +3933,51 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
         <v>1</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>1</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>1</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:30">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4001,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -4013,16 +4013,16 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>1</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>1</v>
@@ -4057,13 +4057,13 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4093,16 +4093,16 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -4120,19 +4120,19 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -4149,13 +4149,13 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4164,16 +4164,16 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -4230,13 +4230,13 @@
         <v>1</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>1</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4268,25 +4268,25 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -4298,19 +4298,19 @@
         <v>1</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>1</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <v>1</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>1</v>
@@ -4339,19 +4339,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -4375,46 +4375,46 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>1</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <v>1</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>1</v>
@@ -4431,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4443,10 +4443,10 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4467,13 +4467,13 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4526,13 +4526,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4541,28 +4541,28 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -4574,10 +4574,10 @@
         <v>1</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
         <v>1</v>
@@ -4601,30 +4601,30 @@
         <v>1</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:30">
       <c r="A46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4666,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>1</v>
@@ -4678,19 +4678,19 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46">
         <v>1</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46">
         <v>1</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -4767,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -4779,13 +4779,13 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>1</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -4799,28 +4799,28 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
         <v>1</v>
@@ -4888,16 +4888,16 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4906,46 +4906,46 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49">
         <v>1</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>1</v>
@@ -4960,13 +4960,13 @@
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
         <v>1</v>
@@ -4977,13 +4977,13 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4992,13 +4992,13 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -5007,19 +5007,19 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>1</v>
@@ -5072,13 +5072,13 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -5126,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51">
         <v>1</v>
@@ -5147,13 +5147,13 @@
         <v>1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>1</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5173,25 +5173,25 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -5203,16 +5203,16 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52">
         <v>1</v>
@@ -5253,28 +5253,28 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -5292,10 +5292,10 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -5310,13 +5310,13 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>1</v>
@@ -5325,10 +5325,10 @@
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -5351,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5369,22 +5369,22 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54">
         <v>1</v>
@@ -5420,13 +5420,13 @@
         <v>1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54">
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
         <v>1</v>
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5470,19 +5470,19 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -5491,22 +5491,22 @@
         <v>1</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55">
         <v>1</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -5529,34 +5529,34 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5568,13 +5568,13 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -5583,34 +5583,34 @@
         <v>1</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>1</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
         <v>1</v>
@@ -5627,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -5672,13 +5672,13 @@
         <v>1</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -5696,10 +5696,10 @@
         <v>1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57">
         <v>1</v>
@@ -5713,25 +5713,25 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5740,10 +5740,10 @@
         <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -5776,16 +5776,16 @@
         <v>1</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>1</v>
@@ -5805,28 +5805,28 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5841,10 +5841,10 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -5859,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59">
         <v>1</v>
@@ -5868,45 +5868,45 @@
         <v>0</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z59">
         <v>1</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
         <v>1</v>
       </c>
       <c r="AD59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:30">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5939,34 +5939,34 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
         <v>1</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -5978,33 +5978,33 @@
         <v>1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:30">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6016,13 +6016,13 @@
         <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -6052,10 +6052,10 @@
         <v>1</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61">
         <v>1</v>
@@ -6064,19 +6064,19 @@
         <v>1</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6108,13 +6108,13 @@
         <v>1</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -6123,37 +6123,37 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
         <v>1</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -6165,10 +6165,10 @@
         <v>1</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -6212,10 +6212,10 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -6224,22 +6224,22 @@
         <v>1</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>1</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>1</v>
@@ -6271,34 +6271,34 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -6319,13 +6319,13 @@
         <v>1</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64">
         <v>1</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64">
         <v>1</v>
@@ -6334,10 +6334,10 @@
         <v>1</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64">
         <v>1</v>
@@ -6346,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -6357,22 +6357,22 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -6417,10 +6417,10 @@
         <v>1</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65">
         <v>1</v>
@@ -6438,13 +6438,13 @@
         <v>1</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
         <v>1</v>
       </c>
       <c r="AD65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6455,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6467,13 +6467,13 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -6482,13 +6482,13 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -6497,22 +6497,22 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>1</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66">
         <v>1</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66">
         <v>1</v>
@@ -6521,13 +6521,13 @@
         <v>1</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66">
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB66">
         <v>1</v>
@@ -6536,18 +6536,18 @@
         <v>1</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:30">
       <c r="A67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6559,16 +6559,16 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6577,10 +6577,10 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -6595,10 +6595,10 @@
         <v>1</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -6610,25 +6610,25 @@
         <v>1</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67">
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67">
         <v>1</v>
       </c>
       <c r="AD67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6636,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6654,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6666,10 +6666,10 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68">
         <v>1</v>
@@ -6696,10 +6696,10 @@
         <v>1</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68">
         <v>1</v>
@@ -6725,28 +6725,28 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6758,10 +6758,10 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -6776,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -6785,31 +6785,31 @@
         <v>1</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB69">
         <v>0</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6865,10 +6865,10 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -6877,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70">
         <v>1</v>
@@ -6904,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6912,19 +6912,19 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6939,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -6948,13 +6948,13 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X71">
         <v>1</v>
@@ -6984,10 +6984,10 @@
         <v>1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB71">
         <v>1</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="72" spans="1:30">
       <c r="A72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7028,25 +7028,25 @@
         <v>1</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -7061,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72">
         <v>1</v>
@@ -7070,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="X72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>1</v>
@@ -7079,13 +7079,13 @@
         <v>1</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -7114,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -7126,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -7147,40 +7147,40 @@
         <v>1</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <v>1</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73">
         <v>1</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -7206,13 +7206,13 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7221,19 +7221,19 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
         <v>1</v>
@@ -7245,25 +7245,25 @@
         <v>1</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>1</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74">
         <v>1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB74">
         <v>1</v>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AD74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7304,13 +7304,13 @@
         <v>1</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -7322,31 +7322,31 @@
         <v>1</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75">
         <v>1</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
         <v>1</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="AD75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -7417,22 +7417,22 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76">
         <v>1</v>
       </c>
       <c r="U76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W76">
         <v>1</v>
@@ -7444,19 +7444,19 @@
         <v>1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA76">
         <v>0</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC76">
         <v>1</v>
       </c>
       <c r="AD76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -7491,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -7500,34 +7500,34 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
         <v>1</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77">
         <v>1</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77">
         <v>1</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>1</v>
@@ -7536,16 +7536,16 @@
         <v>1</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD77">
         <v>0</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="78" spans="1:30">
       <c r="A78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7574,10 +7574,10 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -7586,13 +7586,13 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -7601,37 +7601,37 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
         <v>1</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78">
         <v>1</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X78">
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78">
         <v>1</v>
       </c>
       <c r="AA78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB78">
         <v>1</v>
@@ -7675,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -7684,19 +7684,19 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -7714,22 +7714,22 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z79">
         <v>1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD79">
         <v>1</v>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -7755,10 +7755,10 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7770,19 +7770,19 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -7791,28 +7791,28 @@
         <v>1</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80">
         <v>1</v>
       </c>
       <c r="Y80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -7829,16 +7829,16 @@
     </row>
     <row r="81" spans="1:30">
       <c r="A81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -7853,10 +7853,10 @@
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7868,19 +7868,19 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -7892,16 +7892,16 @@
         <v>1</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81">
         <v>1</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -7972,10 +7972,10 @@
         <v>1</v>
       </c>
       <c r="R82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T82">
         <v>1</v>
@@ -7984,13 +7984,13 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82">
         <v>1</v>
@@ -8002,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="AB82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -8031,7 +8031,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8049,13 +8049,13 @@
         <v>1</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83">
         <v>1</v>
@@ -8073,22 +8073,22 @@
         <v>1</v>
       </c>
       <c r="U83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83">
         <v>1</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
         <v>1</v>
@@ -8097,15 +8097,15 @@
         <v>1</v>
       </c>
       <c r="AC83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:30">
       <c r="A84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8138,10 +8138,10 @@
         <v>1</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -8150,22 +8150,22 @@
         <v>1</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84">
         <v>1</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84">
         <v>1</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V84">
         <v>1</v>
@@ -8174,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="X84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y84">
         <v>1</v>
@@ -8183,16 +8183,16 @@
         <v>1</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>1</v>
       </c>
       <c r="AD84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8200,13 +8200,13 @@
         <v>1</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -8218,40 +8218,40 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85">
         <v>1</v>
@@ -8263,13 +8263,13 @@
         <v>1</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <v>0</v>
       </c>
       <c r="Y85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z85">
         <v>1</v>
@@ -8278,13 +8278,13 @@
         <v>1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8292,34 +8292,34 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -8328,10 +8328,10 @@
         <v>1</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86">
         <v>1</v>
@@ -8346,22 +8346,22 @@
         <v>1</v>
       </c>
       <c r="T86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86">
         <v>1</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z86">
         <v>1</v>
@@ -8370,10 +8370,10 @@
         <v>0</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -8381,16 +8381,16 @@
     </row>
     <row r="87" spans="1:30">
       <c r="A87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -8399,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8432,13 +8432,13 @@
         <v>1</v>
       </c>
       <c r="R87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87">
         <v>1</v>
@@ -8450,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="X87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y87">
         <v>1</v>
@@ -8462,18 +8462,18 @@
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
         <v>0</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:30">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -8503,19 +8503,19 @@
         <v>1</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88">
         <v>1</v>
@@ -8536,22 +8536,22 @@
         <v>1</v>
       </c>
       <c r="V88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X88">
         <v>1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB88">
         <v>1</v>
@@ -8565,10 +8565,10 @@
     </row>
     <row r="89" spans="1:30">
       <c r="A89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -8580,16 +8580,16 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -8607,28 +8607,28 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="T89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89">
         <v>1</v>
       </c>
       <c r="V89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W89">
         <v>1</v>
@@ -8643,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB89">
         <v>1</v>
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -8669,22 +8669,22 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>1</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <v>1</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -8726,19 +8726,19 @@
         <v>1</v>
       </c>
       <c r="X90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y90">
         <v>1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -8752,13 +8752,13 @@
         <v>1</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -8767,13 +8767,13 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -8794,10 +8794,10 @@
         <v>1</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>1</v>
@@ -8809,22 +8809,22 @@
         <v>1</v>
       </c>
       <c r="U91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W91">
         <v>1</v>
       </c>
       <c r="X91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA91">
         <v>0</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -8850,16 +8850,16 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8868,16 +8868,16 @@
         <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="R92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -8904,13 +8904,13 @@
         <v>1</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92">
         <v>1</v>
       </c>
       <c r="X92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="A93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -8954,16 +8954,16 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -8984,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -8999,13 +8999,13 @@
         <v>1</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <v>1</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z93">
         <v>1</v>
@@ -9014,10 +9014,10 @@
         <v>1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD93">
         <v>1</v>
@@ -9028,19 +9028,19 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -9055,13 +9055,13 @@
         <v>1</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -9076,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -9088,42 +9088,42 @@
         <v>1</v>
       </c>
       <c r="V94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94">
         <v>1</v>
       </c>
       <c r="Z94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA94">
         <v>1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>1</v>
       </c>
       <c r="AD94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:30">
       <c r="A95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -9168,16 +9168,16 @@
         <v>1</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95">
         <v>0</v>
       </c>
       <c r="T95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95">
         <v>1</v>
@@ -9186,19 +9186,19 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y95">
         <v>1</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
         <v>1</v>
@@ -9209,13 +9209,13 @@
     </row>
     <row r="96" spans="1:30">
       <c r="A96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9224,22 +9224,22 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -9251,19 +9251,19 @@
         <v>1</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="V96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W96">
         <v>1</v>
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>1</v>
@@ -9307,7 +9307,7 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9316,25 +9316,25 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -9349,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97">
         <v>1</v>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="Y97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z97">
         <v>1</v>
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC97">
         <v>1</v>
@@ -9396,19 +9396,19 @@
         <v>1</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9423,10 +9423,10 @@
         <v>1</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -9444,22 +9444,22 @@
         <v>1</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98">
         <v>1</v>
       </c>
       <c r="V98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X98">
         <v>1</v>
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -9503,13 +9503,13 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -9524,13 +9524,13 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99">
         <v>0</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="S99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99">
         <v>1</v>
@@ -9557,13 +9557,13 @@
         <v>1</v>
       </c>
       <c r="Y99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99">
         <v>0</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="100" spans="1:30">
       <c r="A100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -9586,28 +9586,28 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -9616,13 +9616,13 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="U100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V100">
         <v>1</v>
@@ -9646,16 +9646,16 @@
         <v>1</v>
       </c>
       <c r="X100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z100">
         <v>1</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>1</v>
@@ -9672,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9690,25 +9690,25 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z101">
         <v>1</v>

--- a/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
+++ b/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
@@ -573,22 +573,22 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -597,31 +597,31 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -656,28 +656,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -701,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -734,13 +734,13 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -754,55 +754,55 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -811,22 +811,22 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -846,31 +846,31 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -888,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -932,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -950,22 +950,22 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -992,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1007,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1084,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1099,16 +1099,16 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1125,19 +1125,19 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1146,28 +1146,28 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1176,13 +1176,13 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1208,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1223,31 +1223,31 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1283,13 +1283,13 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1318,22 +1318,22 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1345,28 +1345,28 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1398,10 +1398,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1410,31 +1410,31 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1452,48 +1452,48 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1511,10 +1511,10 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1550,10 +1550,10 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1621,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1636,31 +1636,31 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1668,19 +1668,19 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1707,25 +1707,25 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1802,28 +1802,28 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -1852,19 +1852,19 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1876,16 +1876,16 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1912,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>1</v>
@@ -1927,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -1944,16 +1944,16 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1974,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1998,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2036,22 +2036,22 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>1</v>
@@ -2108,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -2128,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2152,22 +2152,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -2182,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2194,19 +2194,19 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>1</v>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2247,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2262,34 +2262,34 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2309,16 +2309,16 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2363,19 +2363,19 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -2410,46 +2410,46 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -2496,28 +2496,28 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2526,25 +2526,25 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2588,13 +2588,13 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2621,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2689,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2701,16 +2701,16 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -2743,16 +2743,16 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -2764,12 +2764,12 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2781,13 +2781,13 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2802,22 +2802,22 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -2847,13 +2847,13 @@
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2900,16 +2900,16 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2977,16 +2977,16 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2995,28 +2995,28 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -3031,13 +3031,13 @@
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -3045,25 +3045,25 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3072,13 +3072,13 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -3099,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -3117,19 +3117,19 @@
         <v>1</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3140,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3161,43 +3161,43 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3277,13 +3277,13 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -3292,31 +3292,31 @@
         <v>1</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>1</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3324,16 +3324,16 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3354,19 +3354,19 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>1</v>
@@ -3390,10 +3390,10 @@
         <v>1</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -3402,18 +3402,18 @@
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3434,31 +3434,31 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -3476,13 +3476,13 @@
         <v>1</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>1</v>
@@ -3491,16 +3491,16 @@
         <v>1</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>1</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3508,16 +3508,16 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3538,16 +3538,16 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3565,28 +3565,28 @@
         <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -3600,10 +3600,10 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3627,13 +3627,13 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3642,34 +3642,34 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>1</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -3689,13 +3689,13 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3710,16 +3710,16 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -3749,19 +3749,19 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
         <v>1</v>
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3784,55 +3784,55 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3894,10 +3894,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3912,16 +3912,16 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>1</v>
@@ -3957,10 +3957,10 @@
         <v>1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -3968,10 +3968,10 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -4007,37 +4007,37 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
         <v>1</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4084,16 +4084,16 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -4117,22 +4117,22 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>1</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -4149,22 +4149,22 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4185,13 +4185,13 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>1</v>
@@ -4233,18 +4233,18 @@
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:30">
       <c r="A42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4253,13 +4253,13 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -4298,22 +4298,22 @@
         <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
         <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
         <v>1</v>
@@ -4322,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
         <v>1</v>
       </c>
       <c r="AD42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4339,22 +4339,22 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -4387,22 +4387,22 @@
         <v>1</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -4417,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4428,25 +4428,25 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4473,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -4488,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>1</v>
@@ -4500,16 +4500,16 @@
         <v>1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>1</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -4517,13 +4517,13 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4547,19 +4547,19 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -4568,16 +4568,16 @@
         <v>1</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -4592,19 +4592,19 @@
         <v>1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>1</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
         <v>1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4612,22 +4612,22 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -4663,22 +4663,22 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
         <v>1</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4722,19 +4722,19 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -4767,13 +4767,13 @@
         <v>1</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47">
         <v>1</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4805,25 +4805,25 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4862,19 +4862,19 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48">
         <v>1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4915,16 +4915,16 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -4954,16 +4954,16 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -4977,13 +4977,13 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4992,10 +4992,10 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5004,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5019,13 +5019,13 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -5034,13 +5034,13 @@
         <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
         <v>1</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>1</v>
@@ -5049,13 +5049,13 @@
         <v>1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>1</v>
@@ -5072,55 +5072,55 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -5132,28 +5132,28 @@
         <v>1</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51">
         <v>1</v>
       </c>
       <c r="X51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5182,28 +5182,28 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -5212,13 +5212,13 @@
         <v>1</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -5227,16 +5227,16 @@
         <v>1</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52">
         <v>1</v>
@@ -5271,31 +5271,31 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -5316,16 +5316,16 @@
         <v>1</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>1</v>
@@ -5334,10 +5334,10 @@
         <v>1</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -5351,34 +5351,34 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -5405,16 +5405,16 @@
         <v>1</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54">
         <v>1</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55">
         <v>1</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -5518,13 +5518,13 @@
         <v>1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5535,13 +5535,13 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5550,13 +5550,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5565,16 +5565,16 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <v>1</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -5583,22 +5583,22 @@
         <v>1</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56">
         <v>1</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56">
         <v>1</v>
       </c>
       <c r="X56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -5607,13 +5607,13 @@
         <v>1</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -5624,13 +5624,13 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5651,10 +5651,10 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -5681,57 +5681,57 @@
         <v>1</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57">
         <v>1</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
         <v>1</v>
       </c>
       <c r="AD57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:30">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5752,13 +5752,13 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -5776,19 +5776,19 @@
         <v>1</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -5814,13 +5814,13 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5835,46 +5835,46 @@
         <v>1</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W59">
         <v>1</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -5886,10 +5886,10 @@
         <v>1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -5909,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5921,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -5942,19 +5942,19 @@
         <v>1</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
         <v>1</v>
@@ -5978,13 +5978,13 @@
         <v>1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
         <v>0</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -5998,16 +5998,16 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6028,28 +6028,28 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61">
         <v>1</v>
@@ -6061,13 +6061,13 @@
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>1</v>
@@ -6076,24 +6076,24 @@
         <v>1</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:30">
       <c r="A62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -6102,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -6114,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6188,13 +6188,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6203,19 +6203,19 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -6224,28 +6224,28 @@
         <v>1</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
         <v>1</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63">
         <v>1</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6289,13 +6289,13 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -6304,13 +6304,13 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
         <v>1</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -6319,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64">
         <v>1</v>
@@ -6328,16 +6328,16 @@
         <v>1</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z64">
         <v>1</v>
@@ -6346,21 +6346,21 @@
         <v>1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:30">
       <c r="A65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6375,19 +6375,19 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -6411,48 +6411,48 @@
         <v>1</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65">
         <v>1</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65">
         <v>1</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65">
         <v>1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65">
         <v>1</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:30">
       <c r="A66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -6467,13 +6467,13 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -6482,31 +6482,31 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>1</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66">
         <v>1</v>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
         <v>1</v>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="AD66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -6592,16 +6592,16 @@
         <v>1</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -6613,13 +6613,13 @@
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z67">
         <v>1</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB67">
         <v>1</v>
@@ -6628,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6636,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6648,34 +6648,34 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -6708,10 +6708,10 @@
         <v>1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB68">
         <v>1</v>
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6734,19 +6734,19 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6758,10 +6758,10 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -6770,13 +6770,13 @@
         <v>1</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -6785,10 +6785,10 @@
         <v>1</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69">
         <v>0</v>
@@ -6800,13 +6800,13 @@
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69">
         <v>1</v>
@@ -6817,10 +6817,10 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6832,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6841,34 +6841,34 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -6877,19 +6877,19 @@
         <v>1</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70">
         <v>1</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z70">
         <v>1</v>
@@ -6898,13 +6898,13 @@
         <v>1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
         <v>1</v>
       </c>
       <c r="AD70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6915,13 +6915,13 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -6939,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -6954,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -6966,10 +6966,10 @@
         <v>1</v>
       </c>
       <c r="T71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC71">
         <v>1</v>
@@ -7004,13 +7004,13 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -7037,46 +7037,46 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72">
         <v>1</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>1</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72">
         <v>1</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -7108,19 +7108,19 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7129,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -7147,10 +7147,10 @@
         <v>1</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73">
         <v>1</v>
@@ -7168,13 +7168,13 @@
         <v>1</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -7185,22 +7185,22 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7209,28 +7209,28 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -7248,10 +7248,10 @@
         <v>1</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X74">
         <v>1</v>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7289,16 +7289,16 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7325,16 +7325,16 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75">
         <v>1</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75">
         <v>1</v>
@@ -7352,30 +7352,30 @@
         <v>1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:30">
       <c r="A76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -7408,22 +7408,22 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <v>1</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76">
         <v>1</v>
@@ -7444,13 +7444,13 @@
         <v>1</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC76">
         <v>1</v>
@@ -7464,13 +7464,13 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -7485,19 +7485,19 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77">
         <v>1</v>
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77">
         <v>1</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC77">
         <v>0</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7556,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -7574,25 +7574,25 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -7601,22 +7601,22 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78">
         <v>1</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78">
         <v>1</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z78">
         <v>1</v>
@@ -7651,10 +7651,10 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -7675,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -7684,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -7696,34 +7696,34 @@
         <v>1</v>
       </c>
       <c r="R79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79">
         <v>1</v>
       </c>
       <c r="Z79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB79">
         <v>1</v>
@@ -7732,15 +7732,15 @@
         <v>1</v>
       </c>
       <c r="AD79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:30">
       <c r="A80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7749,16 +7749,16 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7773,13 +7773,13 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80">
         <v>1</v>
@@ -7797,13 +7797,13 @@
         <v>1</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>1</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X80">
         <v>1</v>
@@ -7818,13 +7818,13 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC80">
         <v>1</v>
       </c>
       <c r="AD80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7838,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -7847,13 +7847,13 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -7901,16 +7901,16 @@
         <v>1</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z81">
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81">
         <v>1</v>
@@ -7930,25 +7930,25 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -7957,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -7972,37 +7972,37 @@
         <v>1</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82">
         <v>1</v>
       </c>
       <c r="U82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82">
         <v>1</v>
       </c>
       <c r="W82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82">
         <v>1</v>
       </c>
       <c r="Y82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z82">
         <v>1</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="A83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8028,13 +8028,13 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -8049,46 +8049,46 @@
         <v>1</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83">
         <v>0</v>
       </c>
       <c r="T83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83">
         <v>0</v>
       </c>
       <c r="V83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X83">
         <v>1</v>
       </c>
       <c r="Y83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>1</v>
@@ -8097,24 +8097,24 @@
         <v>1</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:30">
       <c r="A84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -8123,25 +8123,25 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84">
         <v>1</v>
@@ -8162,10 +8162,10 @@
         <v>1</v>
       </c>
       <c r="T84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84">
         <v>1</v>
@@ -8174,13 +8174,13 @@
         <v>1</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
         <v>1</v>
@@ -8192,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -8230,43 +8230,43 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W85">
         <v>1</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -8281,15 +8281,15 @@
         <v>0</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:30">
       <c r="A86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -8298,31 +8298,31 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -8331,19 +8331,19 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>1</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -8367,13 +8367,13 @@
         <v>1</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -8402,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -8417,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -8432,19 +8432,19 @@
         <v>1</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87">
         <v>1</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="Y87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
         <v>1</v>
@@ -8462,13 +8462,13 @@
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87">
         <v>0</v>
       </c>
       <c r="AD87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8497,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -8512,13 +8512,13 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88">
         <v>1</v>
@@ -8536,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="V88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W88">
         <v>0</v>
@@ -8557,15 +8557,15 @@
         <v>1</v>
       </c>
       <c r="AC88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:30">
       <c r="A89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -8577,10 +8577,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8589,19 +8589,19 @@
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -8610,13 +8610,13 @@
         <v>1</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="U89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89">
         <v>1</v>
@@ -8643,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB89">
         <v>1</v>
@@ -8652,33 +8652,33 @@
         <v>1</v>
       </c>
       <c r="AD89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:30">
       <c r="A90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90">
         <v>1</v>
@@ -8723,10 +8723,10 @@
         <v>1</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y90">
         <v>1</v>
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>1</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8776,19 +8776,19 @@
         <v>1</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>1</v>
@@ -8806,16 +8806,16 @@
         <v>1</v>
       </c>
       <c r="T91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91">
         <v>0</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X91">
         <v>1</v>
@@ -8824,10 +8824,10 @@
         <v>1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB91">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -8856,13 +8856,13 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -8889,16 +8889,16 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92">
         <v>0</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92">
         <v>1</v>
@@ -8910,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="X92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD92">
         <v>1</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="A93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8945,34 +8945,34 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -8984,10 +8984,10 @@
         <v>1</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93">
         <v>1</v>
@@ -8999,10 +8999,10 @@
         <v>1</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y93">
         <v>1</v>
@@ -9011,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB93">
         <v>1</v>
@@ -9028,16 +9028,16 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -9046,13 +9046,13 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -9073,34 +9073,34 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94">
         <v>1</v>
       </c>
       <c r="T94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94">
         <v>1</v>
       </c>
       <c r="V94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94">
         <v>1</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA94">
         <v>1</v>
@@ -9117,16 +9117,16 @@
     </row>
     <row r="95" spans="1:30">
       <c r="A95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -9135,16 +9135,16 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -9153,13 +9153,13 @@
         <v>1</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P95">
         <v>1</v>
@@ -9174,25 +9174,25 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y95">
         <v>1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA95">
         <v>1</v>
@@ -9209,13 +9209,13 @@
     </row>
     <row r="96" spans="1:30">
       <c r="A96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -9254,13 +9254,13 @@
         <v>1</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -9272,13 +9272,13 @@
         <v>1</v>
       </c>
       <c r="V96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96">
         <v>1</v>
       </c>
       <c r="X96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y96">
         <v>1</v>
@@ -9293,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -9307,10 +9307,10 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -9325,16 +9325,16 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="T97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>1</v>
@@ -9367,25 +9367,25 @@
         <v>1</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y97">
         <v>1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB97">
         <v>0</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD97">
         <v>1</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="98" spans="1:30">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -9417,13 +9417,13 @@
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -9432,19 +9432,19 @@
         <v>1</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
         <v>1</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -9456,10 +9456,10 @@
         <v>1</v>
       </c>
       <c r="V98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>1</v>
@@ -9468,13 +9468,13 @@
         <v>1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA98">
         <v>1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="99" spans="1:30">
       <c r="A99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -9509,34 +9509,34 @@
         <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="X99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -9563,10 +9563,10 @@
         <v>1</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99">
         <v>1</v>
@@ -9577,19 +9577,19 @@
     </row>
     <row r="100" spans="1:30">
       <c r="A100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -9598,22 +9598,22 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="V100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W100">
         <v>1</v>
       </c>
       <c r="X100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y100">
         <v>1</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA100">
         <v>1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD100">
         <v>1</v>
@@ -9669,28 +9669,28 @@
     </row>
     <row r="101" spans="1:30">
       <c r="A101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -9699,16 +9699,16 @@
         <v>1</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>1</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -9723,13 +9723,13 @@
         <v>1</v>
       </c>
       <c r="S101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V101">
         <v>1</v>
@@ -9738,10 +9738,10 @@
         <v>1</v>
       </c>
       <c r="X101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z101">
         <v>1</v>
@@ -9750,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD101">
         <v>1</v>

--- a/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
+++ b/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -633,19 +633,19 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -656,31 +656,31 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -692,34 +692,34 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -805,13 +805,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -837,28 +837,28 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -867,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,25 +888,25 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -918,18 +918,18 @@
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -962,13 +962,13 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -992,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1007,16 +1007,16 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1039,13 +1039,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1057,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1149,22 +1149,22 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1208,34 +1208,34 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1256,13 +1256,13 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1375,33 +1375,33 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1410,16 +1410,16 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1428,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -1458,19 +1458,19 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -1481,37 +1481,37 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1541,13 +1541,13 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -1568,27 +1568,27 @@
         <v>1</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1603,16 +1603,16 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1630,28 +1630,28 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -1668,13 +1668,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1692,37 +1692,37 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -1805,13 +1805,13 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -1873,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1885,13 +1885,13 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -1941,40 +1941,40 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2004,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2042,13 +2042,13 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2057,16 +2057,16 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2075,34 +2075,34 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2149,16 +2149,16 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2167,28 +2167,28 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2223,19 +2223,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2253,28 +2253,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2327,25 +2327,25 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2360,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -2384,13 +2384,13 @@
         <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2404,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2419,25 +2419,25 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -2455,19 +2455,19 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -2502,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -2550,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>1</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -2580,27 +2580,27 @@
         <v>1</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -2698,19 +2698,19 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2737,34 +2737,34 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2796,16 +2796,16 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -2844,16 +2844,16 @@
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2882,10 +2882,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2927,10 +2927,10 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2939,13 +2939,13 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -2953,16 +2953,16 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2995,25 +2995,25 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3025,33 +3025,33 @@
         <v>1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>1</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3072,16 +3072,16 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -3105,19 +3105,19 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>1</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -3126,10 +3126,10 @@
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3137,19 +3137,19 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3161,43 +3161,43 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>1</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -3218,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3238,13 +3238,13 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3259,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -3301,22 +3301,22 @@
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3333,22 +3333,22 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3381,19 +3381,19 @@
         <v>1</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>1</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -3402,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3479,10 +3479,10 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>1</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3514,16 +3514,16 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3535,19 +3535,19 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
         <v>1</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3624,16 +3624,16 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3642,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -3654,13 +3654,13 @@
         <v>1</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -3692,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3716,13 +3716,13 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -3731,28 +3731,28 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>1</v>
@@ -3761,19 +3761,19 @@
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3820,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>1</v>
@@ -3856,24 +3856,24 @@
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <v>1</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:30">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3885,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3897,13 +3897,13 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -3915,16 +3915,16 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -3948,16 +3948,16 @@
         <v>1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>1</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3998,19 +3998,19 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -4022,31 +4022,31 @@
         <v>1</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <v>1</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>1</v>
@@ -4057,22 +4057,22 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4081,16 +4081,16 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4099,16 +4099,16 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -4117,16 +4117,16 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -4158,25 +4158,25 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4185,10 +4185,10 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4209,19 +4209,19 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41">
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41">
         <v>1</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4244,22 +4244,22 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4283,16 +4283,16 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>1</v>
@@ -4316,19 +4316,19 @@
         <v>1</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>1</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4339,19 +4339,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4366,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -4384,13 +4384,13 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>1</v>
@@ -4417,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4428,16 +4428,16 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4455,34 +4455,34 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44">
         <v>1</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44">
         <v>1</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44">
         <v>1</v>
@@ -4506,10 +4506,10 @@
         <v>1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4535,40 +4535,40 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -4592,19 +4592,19 @@
         <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>1</v>
       </c>
       <c r="AD45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4612,22 +4612,22 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4636,31 +4636,31 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4669,19 +4669,19 @@
         <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <v>1</v>
@@ -4719,16 +4719,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4767,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -4779,13 +4779,13 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -4832,25 +4832,25 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4865,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
         <v>1</v>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4915,34 +4915,34 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>1</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -4954,25 +4954,25 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -4980,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4992,10 +4992,10 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -5046,16 +5046,16 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5075,22 +5075,22 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5102,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -5129,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -5153,18 +5153,18 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:30">
       <c r="A52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -5197,13 +5197,13 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -5227,13 +5227,13 @@
         <v>1</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -5262,13 +5262,13 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -5351,34 +5351,34 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -5387,22 +5387,22 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>1</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>1</v>
@@ -5423,13 +5423,13 @@
         <v>1</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <v>1</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -5443,10 +5443,10 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -5476,13 +5476,13 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -5506,22 +5506,22 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55">
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <v>1</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55">
         <v>1</v>
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5559,22 +5559,22 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <v>1</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -5583,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>1</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5601,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>1</v>
@@ -5613,33 +5613,33 @@
         <v>1</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:30">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5648,13 +5648,13 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -5678,13 +5678,13 @@
         <v>1</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57">
         <v>1</v>
@@ -5702,42 +5702,42 @@
         <v>1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:30">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -5752,13 +5752,13 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5832,34 +5832,34 @@
         <v>1</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59">
         <v>1</v>
@@ -5871,10 +5871,10 @@
         <v>1</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -5889,27 +5889,27 @@
         <v>1</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:30">
       <c r="A60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5927,13 +5927,13 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -5945,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -5960,16 +5960,16 @@
         <v>1</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60">
         <v>1</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60">
         <v>1</v>
@@ -5978,21 +5978,21 @@
         <v>1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:30">
       <c r="A61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6025,13 +6025,13 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -6043,37 +6043,37 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>1</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61">
         <v>1</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>1</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6090,31 +6090,31 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -6123,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -6138,16 +6138,16 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62">
         <v>1</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62">
         <v>1</v>
@@ -6159,21 +6159,21 @@
         <v>1</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62">
         <v>1</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:30">
       <c r="A63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -6182,10 +6182,10 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -6194,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -6212,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -6224,13 +6224,13 @@
         <v>1</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
         <v>1</v>
@@ -6242,10 +6242,10 @@
         <v>1</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z63">
         <v>1</v>
@@ -6257,10 +6257,10 @@
         <v>1</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6268,13 +6268,13 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64">
         <v>1</v>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6366,19 +6366,19 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6387,19 +6387,19 @@
         <v>1</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -6408,28 +6408,28 @@
         <v>1</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65">
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65">
         <v>1</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6467,13 +6467,13 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -6494,10 +6494,10 @@
         <v>1</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>1</v>
@@ -6509,28 +6509,28 @@
         <v>1</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66">
         <v>1</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
         <v>1</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6556,16 +6556,16 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -6574,16 +6574,16 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -6613,16 +6613,16 @@
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67">
         <v>1</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
         <v>1</v>
@@ -6636,19 +6636,19 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6675,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -6693,25 +6693,25 @@
         <v>1</v>
       </c>
       <c r="U68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68">
         <v>1</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
         <v>1</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB68">
         <v>1</v>
@@ -6725,10 +6725,10 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6740,19 +6740,19 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -6761,28 +6761,28 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>1</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <v>1</v>
@@ -6791,16 +6791,16 @@
         <v>1</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>1</v>
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -6832,13 +6832,13 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -6859,13 +6859,13 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>1</v>
@@ -6877,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70">
         <v>1</v>
@@ -6889,19 +6889,19 @@
         <v>1</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70">
         <v>1</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB70">
         <v>0</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -6912,22 +6912,22 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6939,55 +6939,55 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>1</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71">
         <v>1</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71">
         <v>1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -7004,13 +7004,13 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -7025,16 +7025,16 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -7052,22 +7052,22 @@
         <v>1</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72">
         <v>1</v>
@@ -7076,13 +7076,13 @@
         <v>0</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -7105,10 +7105,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7117,13 +7117,13 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -7150,13 +7150,13 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <v>1</v>
       </c>
       <c r="V73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73">
         <v>1</v>
@@ -7168,16 +7168,16 @@
         <v>1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73">
         <v>1</v>
@@ -7188,10 +7188,10 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -7236,19 +7236,19 @@
         <v>1</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74">
         <v>1</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -7257,13 +7257,13 @@
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB74">
         <v>1</v>
@@ -7292,16 +7292,16 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -7334,19 +7334,19 @@
         <v>1</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -7355,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75">
         <v>1</v>
@@ -7369,13 +7369,13 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -7399,25 +7399,25 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <v>1</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -7429,22 +7429,22 @@
         <v>1</v>
       </c>
       <c r="U76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76">
         <v>1</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA76">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7470,16 +7470,16 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7488,19 +7488,19 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -7512,13 +7512,13 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77">
         <v>1</v>
@@ -7536,16 +7536,16 @@
         <v>1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77">
         <v>1</v>
@@ -7556,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7565,13 +7565,13 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7580,25 +7580,25 @@
         <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -7616,13 +7616,13 @@
         <v>1</v>
       </c>
       <c r="V78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78">
         <v>1</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78">
         <v>1</v>
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
         <v>1</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -7699,16 +7699,16 @@
         <v>0</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
       <c r="U79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79">
         <v>1</v>
@@ -7717,10 +7717,10 @@
         <v>1</v>
       </c>
       <c r="Y79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79">
         <v>1</v>
@@ -7732,12 +7732,12 @@
         <v>1</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:30">
       <c r="A80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -7749,10 +7749,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7770,22 +7770,22 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -7794,13 +7794,13 @@
         <v>1</v>
       </c>
       <c r="T80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80">
         <v>1</v>
@@ -7809,10 +7809,10 @@
         <v>1</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA80">
         <v>1</v>
@@ -7824,18 +7824,18 @@
         <v>1</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:30">
       <c r="A81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -7847,16 +7847,16 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7868,19 +7868,19 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
         <v>1</v>
@@ -7904,19 +7904,19 @@
         <v>1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC81">
         <v>1</v>
       </c>
       <c r="AD81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7930,28 +7930,28 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -7966,13 +7966,13 @@
         <v>1</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
         <v>1</v>
       </c>
       <c r="R82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -7981,16 +7981,16 @@
         <v>1</v>
       </c>
       <c r="U82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82">
         <v>1</v>
       </c>
       <c r="X82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82">
         <v>1</v>
@@ -8028,22 +8028,22 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -8061,25 +8061,25 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83">
         <v>1</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83">
         <v>0</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83">
         <v>1</v>
@@ -8088,19 +8088,19 @@
         <v>0</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8111,10 +8111,10 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -8129,16 +8129,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -8162,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84">
         <v>1</v>
@@ -8177,19 +8177,19 @@
         <v>1</v>
       </c>
       <c r="Y84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z84">
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -8203,31 +8203,31 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85">
         <v>1</v>
@@ -8257,13 +8257,13 @@
         <v>0</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X85">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8292,19 +8292,19 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -8331,13 +8331,13 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86">
         <v>1</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86">
         <v>1</v>
@@ -8361,10 +8361,10 @@
         <v>1</v>
       </c>
       <c r="Y86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
         <v>1</v>
@@ -8373,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -8384,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -8402,19 +8402,19 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -8444,39 +8444,39 @@
         <v>1</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z87">
         <v>1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:30">
       <c r="A88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8485,40 +8485,40 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -8551,16 +8551,16 @@
         <v>1</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8568,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -8580,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8589,7 +8589,7 @@
         <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -8601,40 +8601,40 @@
         <v>1</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <v>1</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y89">
         <v>1</v>
@@ -8646,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
         <v>1</v>
@@ -8657,22 +8657,22 @@
     </row>
     <row r="90" spans="1:30">
       <c r="A90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>1</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>1</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -8714,10 +8714,10 @@
         <v>1</v>
       </c>
       <c r="T90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -8735,16 +8735,16 @@
         <v>1</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>0</v>
       </c>
       <c r="AD90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8758,13 +8758,13 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>1</v>
@@ -8809,13 +8809,13 @@
         <v>0</v>
       </c>
       <c r="U91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91">
         <v>0</v>
       </c>
       <c r="W91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X91">
         <v>1</v>
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -8850,37 +8850,37 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>1</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -8889,10 +8889,10 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -8901,10 +8901,10 @@
         <v>1</v>
       </c>
       <c r="U92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W92">
         <v>1</v>
@@ -8916,16 +8916,16 @@
         <v>0</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD92">
         <v>1</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="A93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -8966,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -8975,16 +8975,16 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
         <v>1</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -8996,13 +8996,13 @@
         <v>1</v>
       </c>
       <c r="V93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93">
         <v>1</v>
@@ -9011,13 +9011,13 @@
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD93">
         <v>1</v>
@@ -9031,34 +9031,34 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -9073,16 +9073,16 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -9094,13 +9094,13 @@
         <v>1</v>
       </c>
       <c r="X94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94">
         <v>0</v>
       </c>
       <c r="Z94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA94">
         <v>1</v>
@@ -9117,22 +9117,22 @@
     </row>
     <row r="95" spans="1:30">
       <c r="A95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9141,10 +9141,10 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -9156,10 +9156,10 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95">
         <v>1</v>
@@ -9168,10 +9168,10 @@
         <v>1</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95">
         <v>1</v>
@@ -9180,16 +9180,16 @@
         <v>1</v>
       </c>
       <c r="V95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W95">
         <v>1</v>
       </c>
       <c r="X95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z95">
         <v>1</v>
@@ -9209,13 +9209,13 @@
     </row>
     <row r="96" spans="1:30">
       <c r="A96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9224,22 +9224,22 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -9263,10 +9263,10 @@
         <v>1</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U96">
         <v>1</v>
@@ -9275,10 +9275,10 @@
         <v>1</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y96">
         <v>1</v>
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="AB96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -9304,22 +9304,22 @@
         <v>1</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97">
         <v>1</v>
@@ -9379,33 +9379,33 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:30">
       <c r="A98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -9414,19 +9414,19 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98">
         <v>1</v>
@@ -9450,13 +9450,13 @@
         <v>1</v>
       </c>
       <c r="T98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U98">
         <v>1</v>
       </c>
       <c r="V98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W98">
         <v>1</v>
@@ -9471,13 +9471,13 @@
         <v>1</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD98">
         <v>1</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="99" spans="1:30">
       <c r="A99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -9506,13 +9506,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -9530,13 +9530,13 @@
         <v>1</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
         <v>1</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
         <v>1</v>
@@ -9577,16 +9577,16 @@
     </row>
     <row r="100" spans="1:30">
       <c r="A100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -9619,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -9628,10 +9628,10 @@
         <v>1</v>
       </c>
       <c r="R100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100">
         <v>1</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="V100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W100">
         <v>1</v>
       </c>
       <c r="X100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y100">
         <v>1</v>
@@ -9658,10 +9658,10 @@
         <v>1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD100">
         <v>1</v>
@@ -9675,10 +9675,10 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -9690,19 +9690,19 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -9747,16 +9747,16 @@
         <v>1</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC101">
         <v>0</v>
       </c>
       <c r="AD101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
+++ b/pretreatment/files/vectorstatut_xsl_withEntete.xlsx
@@ -567,34 +567,34 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -603,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -633,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -674,13 +674,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -698,28 +698,28 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -734,27 +734,27 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -837,13 +837,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -891,19 +891,19 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -912,19 +912,19 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -932,25 +932,25 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -959,31 +959,31 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -1010,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1030,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1042,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -1087,25 +1087,25 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1140,25 +1140,25 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1179,19 +1179,19 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1200,12 +1200,12 @@
         <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1214,22 +1214,22 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1247,19 +1247,19 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1318,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1351,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1372,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -1398,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1437,16 +1437,16 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1514,19 +1514,19 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1535,19 +1535,19 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>1</v>
@@ -1565,30 +1565,30 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -1642,13 +1642,13 @@
         <v>1</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1674,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1695,28 +1695,28 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>1</v>
@@ -1752,12 +1752,12 @@
         <v>1</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1799,37 +1799,37 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -1852,31 +1852,31 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1885,13 +1885,13 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -1944,22 +1944,22 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1971,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1986,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -2001,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2045,43 +2045,43 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2105,22 +2105,22 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>1</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2140,108 +2140,108 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>1</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2265,19 +2265,19 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -2404,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2419,19 +2419,19 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2461,13 +2461,13 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -2479,13 +2479,13 @@
         <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2520,22 +2520,22 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -2550,19 +2550,19 @@
         <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2574,18 +2574,18 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2621,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2636,37 +2636,37 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2686,64 +2686,64 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>1</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2802,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -2817,16 +2817,16 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>1</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -2838,13 +2838,13 @@
         <v>1</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -2864,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2885,28 +2885,28 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2915,16 +2915,16 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2998,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3087,22 +3087,22 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -3111,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -3126,10 +3126,10 @@
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3146,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3158,22 +3158,22 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3185,16 +3185,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -3206,22 +3206,22 @@
         <v>1</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3247,22 +3247,22 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -3283,16 +3283,16 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3384,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3428,28 +3428,28 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3458,19 +3458,19 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -3491,16 +3491,16 @@
         <v>1</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3511,31 +3511,31 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -3544,10 +3544,10 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -3556,13 +3556,13 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -3580,13 +3580,13 @@
         <v>1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3606,13 +3606,13 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3621,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -3651,34 +3651,34 @@
         <v>1</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3695,40 +3695,40 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3737,13 +3737,13 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3761,10 +3761,10 @@
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -3781,16 +3781,16 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3808,16 +3808,16 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -3826,28 +3826,28 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>1</v>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -3865,10 +3865,10 @@
         <v>1</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -3921,16 +3921,16 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -3945,45 +3945,45 @@
         <v>1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
         <v>1</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:30">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4001,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -4016,13 +4016,13 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -4031,13 +4031,13 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>1</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4066,16 +4066,16 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4105,22 +4105,22 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>1</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>1</v>
@@ -4138,13 +4138,13 @@
         <v>1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <v>1</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4155,28 +4155,28 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4185,10 +4185,10 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>1</v>
@@ -4224,16 +4224,16 @@
         <v>1</v>
       </c>
       <c r="Z41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -4241,13 +4241,13 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4271,10 +4271,10 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -4295,31 +4295,31 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <v>1</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>1</v>
@@ -4336,16 +4336,16 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4375,28 +4375,28 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
         <v>1</v>
@@ -4437,19 +4437,19 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -4461,28 +4461,28 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -4491,10 +4491,10 @@
         <v>1</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
         <v>1</v>
@@ -4517,13 +4517,13 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4535,25 +4535,25 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -4562,22 +4562,22 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45">
         <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -4604,24 +4604,24 @@
         <v>1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4630,13 +4630,13 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4648,16 +4648,16 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>1</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -4701,13 +4701,13 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4716,31 +4716,31 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>1</v>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4811,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4823,25 +4823,25 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -4853,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <v>1</v>
@@ -4868,16 +4868,16 @@
         <v>1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -4891,10 +4891,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4903,40 +4903,40 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -4954,22 +4954,22 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
         <v>1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -4977,19 +4977,19 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4998,28 +4998,28 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -5028,28 +5028,28 @@
         <v>1</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <v>1</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>1</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <v>1</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
         <v>1</v>
@@ -5075,13 +5075,13 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5102,16 +5102,16 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51">
         <v>1</v>
@@ -5144,19 +5144,19 @@
         <v>1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5176,40 +5176,40 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1</v>
@@ -5218,22 +5218,22 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -5242,10 +5242,10 @@
         <v>1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52">
         <v>1</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5280,13 +5280,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -5295,10 +5295,10 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <v>1</v>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -5334,13 +5334,13 @@
         <v>1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -5375,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -5396,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -5420,33 +5420,33 @@
         <v>1</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>1</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
         <v>0</v>
       </c>
       <c r="AD54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:30">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -5497,10 +5497,10 @@
         <v>1</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -5509,13 +5509,13 @@
         <v>1</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55">
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
         <v>1</v>
@@ -5544,28 +5544,28 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -5583,16 +5583,16 @@
         <v>1</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56">
         <v>1</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <v>1</v>
@@ -5601,22 +5601,22 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>1</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
         <v>1</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5627,13 +5627,13 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -5648,25 +5648,25 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -5693,16 +5693,16 @@
         <v>1</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57">
         <v>1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5722,28 +5722,28 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -5782,36 +5782,36 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>1</v>
       </c>
       <c r="Z58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:30">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -5838,25 +5838,25 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -5865,13 +5865,13 @@
         <v>1</v>
       </c>
       <c r="U59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59">
         <v>1</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>1</v>
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>1</v>
@@ -5900,16 +5900,16 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -5918,10 +5918,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -5945,16 +5945,16 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -5966,19 +5966,19 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
         <v>1</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
         <v>1</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6022,28 +6022,28 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -6061,16 +6061,16 @@
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -6084,10 +6084,10 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -6096,13 +6096,13 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -6138,13 +6138,13 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>1</v>
       </c>
       <c r="V62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62">
         <v>1</v>
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -6182,49 +6182,49 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63">
         <v>1</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -6233,16 +6233,16 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63">
         <v>1</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6277,19 +6277,19 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -6319,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64">
         <v>1</v>
@@ -6328,13 +6328,13 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -6352,12 +6352,12 @@
         <v>1</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:30">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6381,13 +6381,13 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -6408,28 +6408,28 @@
         <v>1</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65">
         <v>1</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>1</v>
@@ -6438,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -6455,13 +6455,13 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -6482,13 +6482,13 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>1</v>
@@ -6506,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>1</v>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>1</v>
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6568,10 +6568,10 @@
         <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -6580,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -6592,16 +6592,16 @@
         <v>1</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -6622,13 +6622,13 @@
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67">
         <v>1</v>
       </c>
       <c r="AD67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6663,10 +6663,10 @@
         <v>1</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>1</v>
@@ -6702,13 +6702,13 @@
         <v>1</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68">
         <v>0</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -6725,40 +6725,40 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -6776,13 +6776,13 @@
         <v>1</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69">
         <v>1</v>
@@ -6791,10 +6791,10 @@
         <v>1</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>1</v>
@@ -6812,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="AD69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6829,10 +6829,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -6871,13 +6871,13 @@
         <v>1</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70">
         <v>1</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -6886,10 +6886,10 @@
         <v>1</v>
       </c>
       <c r="X70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z70">
         <v>1</v>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -6921,19 +6921,19 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>1</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="X71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD71">
         <v>1</v>
@@ -7004,13 +7004,13 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -7019,16 +7019,16 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -7046,22 +7046,22 @@
         <v>1</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
         <v>1</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -7070,10 +7070,10 @@
         <v>1</v>
       </c>
       <c r="X72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72">
         <v>1</v>
@@ -7082,21 +7082,21 @@
         <v>1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>1</v>
       </c>
       <c r="AD72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:30">
       <c r="A73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -7126,13 +7126,13 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -7147,22 +7147,22 @@
         <v>1</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73">
         <v>1</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73">
         <v>1</v>
       </c>
       <c r="X73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>1</v>
@@ -7171,16 +7171,16 @@
         <v>1</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7194,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -7209,16 +7209,16 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -7236,34 +7236,34 @@
         <v>1</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74">
         <v>1</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>1</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB74">
         <v>1</v>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AD74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -7325,10 +7325,10 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -7346,10 +7346,10 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z75">
         <v>1</v>
@@ -7361,10 +7361,10 @@
         <v>1</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7375,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7417,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -7432,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -7482,34 +7482,34 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77">
         <v>1</v>
@@ -7527,16 +7527,16 @@
         <v>1</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77">
         <v>1</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA77">
         <v>1</v>
@@ -7556,10 +7556,10 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -7568,16 +7568,16 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -7586,13 +7586,13 @@
         <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -7601,19 +7601,19 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
         <v>1</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
       <c r="U78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78">
         <v>1</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7657,19 +7657,19 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -7687,16 +7687,16 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -7726,42 +7726,42 @@
         <v>1</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
         <v>1</v>
       </c>
       <c r="AD79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:30">
       <c r="A80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -7773,16 +7773,16 @@
         <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80">
         <v>1</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -7794,16 +7794,16 @@
         <v>1</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80">
         <v>1</v>
@@ -7818,10 +7818,10 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -7832,10 +7832,10 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -7844,25 +7844,25 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -7871,10 +7871,10 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -7886,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="T81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81">
         <v>1</v>
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7927,13 +7927,13 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -7945,10 +7945,10 @@
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7960,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -7975,25 +7975,25 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82">
         <v>1</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z82">
         <v>1</v>
@@ -8008,12 +8008,12 @@
         <v>1</v>
       </c>
       <c r="AD82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:30">
       <c r="A83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -8067,31 +8067,31 @@
         <v>1</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83">
         <v>1</v>
       </c>
       <c r="U83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83">
         <v>0</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X83">
         <v>1</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z83">
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB83">
         <v>1</v>
@@ -8114,10 +8114,10 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -8126,13 +8126,13 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -8141,19 +8141,19 @@
         <v>1</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84">
         <v>1</v>
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V84">
         <v>1</v>
@@ -8177,16 +8177,16 @@
         <v>1</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z84">
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -8197,16 +8197,16 @@
     </row>
     <row r="85" spans="1:30">
       <c r="A85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -8215,7 +8215,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8224,19 +8224,19 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -8254,16 +8254,16 @@
         <v>1</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <v>1</v>
@@ -8278,39 +8278,39 @@
         <v>1</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>1</v>
       </c>
       <c r="AD85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:30">
       <c r="A86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -8337,10 +8337,10 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -8355,28 +8355,28 @@
         <v>1</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>1</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA86">
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8393,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -8408,25 +8408,25 @@
         <v>1</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87">
         <v>1</v>
@@ -8444,22 +8444,22 @@
         <v>1</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X87">
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
         <v>1</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87">
         <v>1</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -8491,25 +8491,25 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -8545,13 +8545,13 @@
         <v>1</v>
       </c>
       <c r="Y88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z88">
         <v>1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB88">
         <v>1</v>
@@ -8568,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -8580,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8589,7 +8589,7 @@
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -8598,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -8607,52 +8607,52 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
         <v>1</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89">
         <v>1</v>
       </c>
       <c r="U89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8693,16 +8693,16 @@
         <v>1</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -8714,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U90">
         <v>0</v>
@@ -8735,13 +8735,13 @@
         <v>1</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD90">
         <v>0</v>
@@ -8749,16 +8749,16 @@
     </row>
     <row r="91" spans="1:30">
       <c r="A91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -8770,16 +8770,16 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -8791,13 +8791,13 @@
         <v>1</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>1</v>
@@ -8806,13 +8806,13 @@
         <v>1</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91">
         <v>1</v>
       </c>
       <c r="V91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W91">
         <v>1</v>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="Y91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z91">
         <v>1</v>
@@ -8830,13 +8830,13 @@
         <v>1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC91">
         <v>0</v>
       </c>
       <c r="AD91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8844,13 +8844,13 @@
         <v>1</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -8859,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8868,13 +8868,13 @@
         <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -8886,22 +8886,22 @@
         <v>1</v>
       </c>
       <c r="P92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <v>1</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92">
         <v>1</v>
@@ -8913,42 +8913,42 @@
         <v>1</v>
       </c>
       <c r="Y92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z92">
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:30">
       <c r="A93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -8987,16 +8987,16 @@
         <v>0</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U93">
         <v>1</v>
       </c>
       <c r="V93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W93">
         <v>1</v>
@@ -9017,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD93">
         <v>1</v>
@@ -9031,34 +9031,34 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -9076,13 +9076,13 @@
         <v>1</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -9094,16 +9094,16 @@
         <v>1</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94">
         <v>0</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB94">
         <v>1</v>
@@ -9120,19 +9120,19 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -9162,25 +9162,25 @@
         <v>1</v>
       </c>
       <c r="P95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
         <v>1</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95">
         <v>1</v>
       </c>
       <c r="U95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95">
         <v>1</v>
@@ -9189,10 +9189,10 @@
         <v>1</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
         <v>1</v>
@@ -9221,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -9233,25 +9233,25 @@
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -9263,10 +9263,10 @@
         <v>1</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96">
         <v>1</v>
@@ -9275,10 +9275,10 @@
         <v>1</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y96">
         <v>1</v>
@@ -9290,10 +9290,10 @@
         <v>1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -9316,10 +9316,10 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9328,16 +9328,16 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -9346,19 +9346,19 @@
         <v>1</v>
       </c>
       <c r="P97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>1</v>
@@ -9367,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="W97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>1</v>
@@ -9382,13 +9382,13 @@
         <v>1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC97">
         <v>1</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9399,13 +9399,13 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -9420,28 +9420,28 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98">
         <v>1</v>
@@ -9459,22 +9459,22 @@
         <v>1</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y98">
         <v>1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
         <v>0</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC98">
         <v>1</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="99" spans="1:30">
       <c r="A99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -9497,22 +9497,22 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -9530,16 +9530,16 @@
         <v>1</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99">
         <v>1</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99">
         <v>1</v>
@@ -9551,10 +9551,10 @@
         <v>1</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99">
         <v>0</v>
@@ -9572,12 +9572,12 @@
         <v>1</v>
       </c>
       <c r="AD99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:30">
       <c r="A100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -9586,16 +9586,16 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -9625,19 +9625,19 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V100">
         <v>1</v>
@@ -9652,10 +9652,10 @@
         <v>1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB100">
         <v>1</v>
@@ -9669,28 +9669,28 @@
     </row>
     <row r="101" spans="1:30">
       <c r="A101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -9723,28 +9723,28 @@
         <v>1</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101">
         <v>1</v>
       </c>
       <c r="U101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V101">
         <v>1</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X101">
         <v>0</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
         <v>1</v>
@@ -9753,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="AC101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
